--- a/JioMobile/April2021Mobile.xlsx
+++ b/JioMobile/April2021Mobile.xlsx
@@ -589,11 +589,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -612,6 +612,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -627,45 +635,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -680,6 +650,30 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -688,7 +682,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -710,11 +704,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,6 +726,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -741,16 +741,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +836,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +962,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,19 +980,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -884,133 +1010,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1040,26 +1040,24 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1080,26 +1078,26 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1130,9 +1128,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,13 +1141,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,130 +1159,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,7 +1344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1373,7 +1373,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1382,7 +1382,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,11 +1714,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="I31" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K37" sqref="K37"/>
+      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1864,26 +1864,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>23500</v>
+        <v>35500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>23500</v>
+        <v>35500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -1907,11 +1907,11 @@
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
@@ -3303,15 +3303,15 @@
       </c>
       <c r="F25" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G25" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="29">
         <v>0</v>
@@ -3321,7 +3321,10 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="O25" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -4566,15 +4569,15 @@
       </c>
       <c r="F47" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G47" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H47" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I47" s="29">
         <v>0</v>
@@ -4583,7 +4586,10 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
+      <c r="N47" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
@@ -4680,15 +4686,15 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -4697,7 +4703,10 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
@@ -7148,15 +7157,15 @@
       </c>
       <c r="F92" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G92" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H92" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I92" s="29">
         <v>0</v>
@@ -7166,7 +7175,10 @@
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
       <c r="N92" s="1"/>
-      <c r="O92" s="1"/>
+      <c r="O92" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="1"/>
@@ -7478,11 +7490,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J37" sqref="J37"/>
+      <selection pane="bottomRight" activeCell="N93" sqref="N93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7628,14 +7640,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>13500</v>
+        <v>25500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -7655,11 +7667,11 @@
       </c>
       <c r="M2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="N2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="O2" s="10">
         <f t="shared" si="0"/>
@@ -8989,14 +9001,16 @@
       </c>
       <c r="H25" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
+      <c r="N25" s="1">
+        <v>3000</v>
+      </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -10137,13 +10151,15 @@
       </c>
       <c r="H47" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="19">
+        <v>3000</v>
+      </c>
       <c r="N47" s="1"/>
       <c r="O47" s="1"/>
       <c r="P47" s="1"/>
@@ -10250,13 +10266,15 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="19">
+        <v>4500</v>
+      </c>
       <c r="N49" s="1"/>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
@@ -12493,14 +12511,16 @@
       </c>
       <c r="H92" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
+      <c r="N92" s="1">
+        <v>1500</v>
+      </c>
       <c r="O92" s="1"/>
       <c r="P92" s="1"/>
       <c r="Q92" s="1"/>

--- a/JioMobile/April2021Mobile.xlsx
+++ b/JioMobile/April2021Mobile.xlsx
@@ -24,6 +24,29 @@
     <author>Vijay</author>
   </authors>
   <commentList>
+    <comment ref="T36" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+3000-Digital
+1000-Cash</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="I80" authorId="0">
       <text>
         <r>
@@ -46,6 +69,72 @@
         </r>
       </text>
     </comment>
+    <comment ref="P80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+2 Mobile sold to FOS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1 mobile sold to FOS</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="U80" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+Sold to customer for Rs 1650</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -589,11 +678,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="[$-409]d\-mmm;@"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -612,9 +701,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,38 +724,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -681,8 +746,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,16 +770,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -726,6 +807,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -741,16 +830,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -836,7 +925,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -848,7 +955,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -860,73 +1003,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,7 +1027,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -956,13 +1045,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -980,25 +1069,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1011,6 +1088,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,17 +1128,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,25 +1177,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1141,13 +1230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1159,130 +1248,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1344,7 +1433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1373,7 +1462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1382,7 +1471,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1714,11 +1803,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="K24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O25" sqref="O25"/>
+      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1864,26 +1953,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>35500</v>
+        <v>92500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>25500</v>
+        <v>82500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>35500</v>
+        <v>92500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>25500</v>
+        <v>82500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -1919,11 +2008,11 @@
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
@@ -1935,11 +2024,11 @@
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37500</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
@@ -2436,15 +2525,15 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I10" s="29">
         <v>0</v>
@@ -2457,7 +2546,10 @@
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
+      <c r="R10" s="1">
+        <f>6*1500</f>
+        <v>9000</v>
+      </c>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
       <c r="U10" s="1"/>
@@ -3075,15 +3167,15 @@
       </c>
       <c r="F21" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G21" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I21" s="29">
         <v>0</v>
@@ -3099,7 +3191,10 @@
       <c r="R21" s="1"/>
       <c r="S21" s="1"/>
       <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="U21" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
       <c r="X21" s="1"/>
@@ -3420,15 +3515,15 @@
       </c>
       <c r="F27" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G27" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H27" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I27" s="29">
         <v>0</v>
@@ -3444,7 +3539,10 @@
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
+      <c r="U27" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
       <c r="X27" s="1"/>
@@ -3819,15 +3917,15 @@
       </c>
       <c r="F34" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G34" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I34" s="29">
         <v>0</v>
@@ -3843,7 +3941,10 @@
       <c r="R34" s="1"/>
       <c r="S34" s="1"/>
       <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
+      <c r="U34" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
@@ -3933,15 +4034,15 @@
       </c>
       <c r="F36" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G36" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H36" s="10">
         <f t="shared" ref="H36:H67" si="6">SUM(J36:AN36)</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I36" s="29">
         <v>0</v>
@@ -3957,7 +4058,10 @@
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
       <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
+      <c r="U36" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
       <c r="X36" s="1"/>
@@ -4107,15 +4211,15 @@
       </c>
       <c r="F39" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G39" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H39" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I39" s="29">
         <v>0</v>
@@ -4131,7 +4235,10 @@
       <c r="R39" s="1"/>
       <c r="S39" s="1"/>
       <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
+      <c r="U39" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="V39" s="1"/>
       <c r="W39" s="1"/>
       <c r="X39" s="1"/>
@@ -4224,15 +4331,15 @@
       </c>
       <c r="F41" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G41" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H41" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I41" s="29">
         <v>0</v>
@@ -4248,7 +4355,10 @@
       <c r="R41" s="1"/>
       <c r="S41" s="1"/>
       <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
+      <c r="U41" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="V41" s="1"/>
       <c r="W41" s="1"/>
       <c r="X41" s="1"/>
@@ -4281,15 +4391,15 @@
       </c>
       <c r="F42" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G42" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H42" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I42" s="29">
         <v>0</v>
@@ -4305,7 +4415,10 @@
       <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
+      <c r="U42" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="V42" s="1"/>
       <c r="W42" s="1"/>
       <c r="X42" s="1"/>
@@ -4338,15 +4451,15 @@
       </c>
       <c r="F43" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="G43" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H43" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="I43" s="29">
         <v>0</v>
@@ -4358,11 +4471,17 @@
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
       <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="Q43" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
       <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
+      <c r="U43" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="V43" s="1"/>
       <c r="W43" s="1"/>
       <c r="X43" s="1"/>
@@ -4452,15 +4571,15 @@
       </c>
       <c r="F45" s="10">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="G45" s="10">
         <f t="shared" si="5"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H45" s="10">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>7500</v>
       </c>
       <c r="I45" s="29">
         <v>0</v>
@@ -4479,7 +4598,10 @@
       <c r="R45" s="1"/>
       <c r="S45" s="1"/>
       <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
+      <c r="U45" s="1">
+        <f>4*1500</f>
+        <v>6000</v>
+      </c>
       <c r="V45" s="1"/>
       <c r="W45" s="1"/>
       <c r="X45" s="1"/>
@@ -5434,15 +5556,15 @@
       </c>
       <c r="F62" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G62" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H62" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="29">
         <v>0</v>
@@ -5459,7 +5581,10 @@
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
       <c r="U62" s="1"/>
-      <c r="V62" s="1"/>
+      <c r="V62" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
       <c r="Y62" s="1"/>
@@ -6475,15 +6600,15 @@
       </c>
       <c r="F80" s="10">
         <f t="shared" si="7"/>
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="G80" s="10">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="H80" s="10">
         <f t="shared" si="9"/>
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="I80" s="29">
         <v>0</v>
@@ -6498,12 +6623,21 @@
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
       <c r="P80" s="1"/>
-      <c r="Q80" s="1"/>
+      <c r="Q80" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
       <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="1"/>
+      <c r="U80" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
+      <c r="V80" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
@@ -6762,15 +6896,15 @@
       </c>
       <c r="F85" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="G85" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H85" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I85" s="29">
         <v>0</v>
@@ -6782,7 +6916,10 @@
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
       <c r="P85" s="1"/>
-      <c r="Q85" s="1"/>
+      <c r="Q85" s="1">
+        <f>1*1500</f>
+        <v>1500</v>
+      </c>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
       <c r="T85" s="1"/>
@@ -7490,11 +7627,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="I87" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="P75" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N93" sqref="N93"/>
+      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7640,14 +7777,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>25500</v>
+        <v>52500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>25500</v>
+        <v>52500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -7679,15 +7816,15 @@
       </c>
       <c r="P2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
       <c r="Q2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="R2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="S2" s="10">
         <f t="shared" si="0"/>
@@ -7695,11 +7832,11 @@
       </c>
       <c r="T2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5500</v>
       </c>
       <c r="U2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="V2" s="10">
         <f t="shared" si="0"/>
@@ -8176,7 +8313,7 @@
       </c>
       <c r="H10" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -8186,7 +8323,9 @@
       <c r="N10" s="1"/>
       <c r="O10" s="1"/>
       <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
+      <c r="Q10" s="1">
+        <v>9000</v>
+      </c>
       <c r="R10" s="1"/>
       <c r="S10" s="1"/>
       <c r="T10" s="1"/>
@@ -9584,7 +9723,7 @@
       </c>
       <c r="H36" s="10">
         <f t="shared" ref="H36:H67" si="3">SUM(I36:AM36)</f>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -9597,7 +9736,9 @@
       <c r="Q36" s="1"/>
       <c r="R36" s="1"/>
       <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
+      <c r="T36" s="19">
+        <v>4000</v>
+      </c>
       <c r="U36" s="1"/>
       <c r="V36" s="1"/>
       <c r="W36" s="1"/>
@@ -9947,16 +10088,17 @@
       </c>
       <c r="H43" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
+      <c r="P43" s="1">
+        <v>1500</v>
+      </c>
       <c r="Q43" s="1"/>
       <c r="R43" s="1"/>
       <c r="S43" s="1"/>
@@ -10748,7 +10890,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -10759,7 +10901,9 @@
       <c r="O58" s="1"/>
       <c r="P58" s="1"/>
       <c r="Q58" s="1"/>
-      <c r="R58" s="1"/>
+      <c r="R58" s="1">
+        <v>2000</v>
+      </c>
       <c r="S58" s="1"/>
       <c r="T58" s="1"/>
       <c r="U58" s="1"/>
@@ -10959,7 +11103,7 @@
       </c>
       <c r="H62" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -10973,7 +11117,9 @@
       <c r="R62" s="1"/>
       <c r="S62" s="1"/>
       <c r="T62" s="1"/>
-      <c r="U62" s="1"/>
+      <c r="U62" s="1">
+        <v>3000</v>
+      </c>
       <c r="V62" s="1"/>
       <c r="W62" s="1"/>
       <c r="X62" s="1"/>
@@ -11900,7 +12046,7 @@
       </c>
       <c r="H80" s="10">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>10500</v>
       </c>
       <c r="I80" s="1">
         <v>4500</v>
@@ -11911,12 +12057,18 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="1"/>
+      <c r="P80" s="1">
+        <v>3000</v>
+      </c>
       <c r="Q80" s="1"/>
       <c r="R80" s="1"/>
       <c r="S80" s="1"/>
-      <c r="T80" s="1"/>
-      <c r="U80" s="1"/>
+      <c r="T80" s="1">
+        <v>1500</v>
+      </c>
+      <c r="U80" s="1">
+        <v>1500</v>
+      </c>
       <c r="V80" s="1"/>
       <c r="W80" s="1"/>
       <c r="X80" s="1"/>
@@ -12156,16 +12308,17 @@
       </c>
       <c r="H85" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1500</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
-      <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="1">
+        <v>1500</v>
+      </c>
       <c r="Q85" s="1"/>
       <c r="R85" s="1"/>
       <c r="S85" s="1"/>
@@ -12795,7 +12948,7 @@
   <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="D59" sqref="A1:D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="3"/>
@@ -12831,7 +12984,7 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>10000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="3" hidden="1" spans="1:4">
@@ -13100,7 +13253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:4">
+    <row r="21" spans="1:4">
       <c r="A21" s="7" t="s">
         <v>37</v>
       </c>
@@ -13112,7 +13265,7 @@
       </c>
       <c r="D21" s="9">
         <f>Orders!F21-Collection!H21</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="22" hidden="1" spans="1:4">
@@ -13190,7 +13343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:4">
+    <row r="27" spans="1:4">
       <c r="A27" s="7" t="s">
         <v>37</v>
       </c>
@@ -13202,7 +13355,7 @@
       </c>
       <c r="D27" s="9">
         <f>Orders!F27-Collection!H27</f>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="28" hidden="1" spans="1:4">
@@ -13295,7 +13448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" hidden="1" spans="1:4">
+    <row r="34" spans="1:4">
       <c r="A34" s="7" t="s">
         <v>52</v>
       </c>
@@ -13307,7 +13460,7 @@
       </c>
       <c r="D34" s="9">
         <f>Orders!F34-Collection!H34</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="35" hidden="1" spans="1:4">
@@ -13325,7 +13478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" hidden="1" spans="1:4">
+    <row r="36" spans="1:4">
       <c r="A36" s="7" t="s">
         <v>52</v>
       </c>
@@ -13337,7 +13490,7 @@
       </c>
       <c r="D36" s="9">
         <f>Orders!F36-Collection!H36</f>
-        <v>0</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="37" hidden="1" spans="1:4">
@@ -13368,7 +13521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:4">
+    <row r="39" spans="1:4">
       <c r="A39" s="7" t="s">
         <v>52</v>
       </c>
@@ -13380,7 +13533,7 @@
       </c>
       <c r="D39" s="9">
         <f>Orders!F39-Collection!H39</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="40" hidden="1" spans="1:4">
@@ -13398,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:4">
+    <row r="41" spans="1:4">
       <c r="A41" s="7" t="s">
         <v>52</v>
       </c>
@@ -13410,10 +13563,10 @@
       </c>
       <c r="D41" s="9">
         <f>Orders!F41-Collection!H41</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="7" t="s">
         <v>52</v>
       </c>
@@ -13425,10 +13578,10 @@
       </c>
       <c r="D42" s="9">
         <f>Orders!F42-Collection!H42</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="7" t="s">
         <v>52</v>
       </c>
@@ -13440,7 +13593,7 @@
       </c>
       <c r="D43" s="9">
         <f>Orders!F43-Collection!H43</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="44" hidden="1" spans="1:4">
@@ -13456,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45" s="7" t="s">
         <v>52</v>
       </c>
@@ -13468,7 +13621,7 @@
       </c>
       <c r="D45" s="9">
         <f>Orders!F45-Collection!H45</f>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="46" hidden="1" spans="1:4">
@@ -13645,7 +13798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" hidden="1" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>78</v>
       </c>
@@ -13657,7 +13810,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>2000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -14186,10 +14339,13 @@
   <autoFilter ref="A1:D96">
     <filterColumn colId="3">
       <filters>
-        <filter val="2000"/>
+        <filter val="1500"/>
         <filter val="3000"/>
+        <filter val="3500"/>
+        <filter val="4500"/>
         <filter val="5000"/>
-        <filter val="10000"/>
+        <filter val="6000"/>
+        <filter val="40000"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/JioMobile/April2021Mobile.xlsx
+++ b/JioMobile/April2021Mobile.xlsx
@@ -678,10 +678,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
@@ -702,6 +702,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -716,6 +723,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -732,83 +808,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -823,23 +830,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +925,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -943,60 +1015,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1009,13 +1027,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1027,19 +1063,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,55 +1093,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,15 +1128,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1148,15 +1139,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1176,6 +1158,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1187,15 +1198,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,11 +1219,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1230,13 +1230,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,130 +1248,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1803,11 +1803,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="R78" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="V88" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="V80" sqref="V80"/>
+      <selection pane="bottomRight" activeCell="Z108" sqref="Z108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1953,26 +1953,26 @@
       <c r="A2" s="13"/>
       <c r="B2" s="23">
         <f>SUM(F3:F121)</f>
-        <v>92500</v>
+        <v>173500</v>
       </c>
       <c r="D2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>82500</v>
+        <v>163500</v>
       </c>
       <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="24">
         <f>H2+I2</f>
-        <v>92500</v>
+        <v>173500</v>
       </c>
       <c r="G2" s="24">
         <f>H2/1500</f>
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="H2" s="14">
         <f>SUM(J2:AN2)</f>
-        <v>82500</v>
+        <v>163500</v>
       </c>
       <c r="I2" s="28">
         <f>SUM(I3:I121)</f>
@@ -2036,15 +2036,15 @@
       </c>
       <c r="X2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>52500</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="0"/>
@@ -2111,15 +2111,15 @@
       </c>
       <c r="F3" s="10">
         <f t="shared" ref="F3:F34" si="1">H3+I3</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G3" s="10">
         <f t="shared" ref="G3:G34" si="2">H3/1500</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H3" s="10">
         <f>SUM(J3:AN3)</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I3" s="29">
         <v>0</v>
@@ -2139,7 +2139,10 @@
       <c r="V3" s="1"/>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
+      <c r="Y3" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
@@ -2228,15 +2231,15 @@
       </c>
       <c r="F5" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G5" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I5" s="29">
         <v>0</v>
@@ -2256,7 +2259,10 @@
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
+      <c r="Y5" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
@@ -2288,15 +2294,15 @@
       </c>
       <c r="F6" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4500</v>
       </c>
       <c r="I6" s="29">
         <v>0</v>
@@ -2316,7 +2322,10 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
+      <c r="Y6" s="1">
+        <f>3*1500</f>
+        <v>4500</v>
+      </c>
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
@@ -2348,15 +2357,15 @@
       </c>
       <c r="F7" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="29">
         <v>0</v>
@@ -2376,7 +2385,10 @@
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
+      <c r="Y7" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -2408,15 +2420,15 @@
       </c>
       <c r="F8" s="10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="H8" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I8" s="29">
         <v>0</v>
@@ -2436,7 +2448,10 @@
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
       <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
+      <c r="Y8" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -2525,15 +2540,15 @@
       </c>
       <c r="F10" s="10">
         <f t="shared" si="1"/>
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="G10" s="10">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10">
         <f t="shared" si="3"/>
-        <v>9000</v>
+        <v>24000</v>
       </c>
       <c r="I10" s="29">
         <v>0</v>
@@ -2556,7 +2571,10 @@
       <c r="V10" s="1"/>
       <c r="W10" s="1"/>
       <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
+      <c r="Y10" s="1">
+        <f>10*1500</f>
+        <v>15000</v>
+      </c>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -4634,15 +4652,15 @@
       </c>
       <c r="F46" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="G46" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I46" s="29">
         <v>0</v>
@@ -4663,7 +4681,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -4808,15 +4829,15 @@
       </c>
       <c r="F49" s="10">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="G49" s="10">
         <f t="shared" si="5"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="H49" s="10">
         <f t="shared" si="6"/>
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="I49" s="29">
         <v>0</v>
@@ -4838,7 +4859,10 @@
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
       <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
+      <c r="X49" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
@@ -5327,15 +5351,15 @@
       </c>
       <c r="F58" s="10">
         <f t="shared" si="4"/>
-        <v>2000</v>
+        <v>9500</v>
       </c>
       <c r="G58" s="10">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H58" s="10">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I58" s="29">
         <v>2000</v>
@@ -5356,7 +5380,10 @@
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="1"/>
-      <c r="Z58" s="1"/>
+      <c r="Z58" s="1">
+        <f>5*1500</f>
+        <v>7500</v>
+      </c>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
@@ -6138,15 +6165,15 @@
       </c>
       <c r="F72" s="10">
         <f t="shared" si="7"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="G72" s="10">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H72" s="10">
         <f t="shared" si="9"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="I72" s="29">
         <v>0</v>
@@ -6170,7 +6197,10 @@
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
       <c r="Y72" s="1"/>
-      <c r="Z72" s="1"/>
+      <c r="Z72" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
@@ -6198,15 +6228,15 @@
       </c>
       <c r="F73" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="G73" s="10">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" s="10">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I73" s="29">
         <v>0</v>
@@ -6225,7 +6255,10 @@
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
       <c r="W73" s="1"/>
-      <c r="X73" s="1"/>
+      <c r="X73" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
@@ -7627,11 +7660,11 @@
   <dimension ref="A1:AM112"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="P75" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="2" topLeftCell="X27" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="T85" sqref="T85"/>
+      <selection pane="bottomRight" activeCell="Z46" sqref="Z46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7777,14 +7810,14 @@
       <c r="E2" s="13"/>
       <c r="F2" s="14">
         <f>SUM(H3:H121)</f>
-        <v>52500</v>
+        <v>100500</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="16">
         <f>SUM(I2:AM2)</f>
-        <v>52500</v>
+        <v>100500</v>
       </c>
       <c r="I2" s="10">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -7844,19 +7877,19 @@
       </c>
       <c r="W2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>10500</v>
       </c>
       <c r="X2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>21000</v>
       </c>
       <c r="Y2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9000</v>
       </c>
       <c r="Z2" s="10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="AA2" s="10">
         <f t="shared" si="0"/>
@@ -8041,7 +8074,7 @@
       </c>
       <c r="H5" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -8058,7 +8091,9 @@
       <c r="U5" s="1"/>
       <c r="V5" s="1"/>
       <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
+      <c r="X5" s="1">
+        <v>3000</v>
+      </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
@@ -8157,7 +8192,7 @@
       </c>
       <c r="H7" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -8174,7 +8209,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
+      <c r="X7" s="19">
+        <v>3000</v>
+      </c>
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
@@ -8209,7 +8246,7 @@
       </c>
       <c r="H8" s="10">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15000</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -8226,7 +8263,9 @@
       <c r="U8" s="1"/>
       <c r="V8" s="1"/>
       <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
+      <c r="X8" s="19">
+        <v>15000</v>
+      </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
@@ -10244,7 +10283,7 @@
       </c>
       <c r="H46" s="10">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>7500</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -10263,7 +10302,9 @@
       <c r="W46" s="1"/>
       <c r="X46" s="1"/>
       <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
+      <c r="Z46" s="19">
+        <v>7500</v>
+      </c>
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
@@ -10408,7 +10449,7 @@
       </c>
       <c r="H49" s="10">
         <f t="shared" si="3"/>
-        <v>4500</v>
+        <v>12000</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -10426,7 +10467,9 @@
       <c r="T49" s="1"/>
       <c r="U49" s="1"/>
       <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
+      <c r="W49" s="1">
+        <v>7500</v>
+      </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="1"/>
       <c r="Z49" s="1"/>
@@ -10890,7 +10933,7 @@
       </c>
       <c r="H58" s="10">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>8000</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" s="1"/>
@@ -10910,7 +10953,9 @@
       <c r="V58" s="1"/>
       <c r="W58" s="1"/>
       <c r="X58" s="1"/>
-      <c r="Y58" s="1"/>
+      <c r="Y58" s="1">
+        <v>6000</v>
+      </c>
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
@@ -11622,7 +11667,7 @@
       </c>
       <c r="H72" s="10">
         <f t="shared" si="4"/>
-        <v>4500</v>
+        <v>7500</v>
       </c>
       <c r="I72" s="1">
         <v>4500</v>
@@ -11642,7 +11687,9 @@
       <c r="V72" s="1"/>
       <c r="W72" s="1"/>
       <c r="X72" s="1"/>
-      <c r="Y72" s="1"/>
+      <c r="Y72" s="1">
+        <v>3000</v>
+      </c>
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
@@ -11673,7 +11720,7 @@
       </c>
       <c r="H73" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="I73" s="1"/>
       <c r="J73" s="1"/>
@@ -11689,7 +11736,9 @@
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
+      <c r="W73" s="1">
+        <v>3000</v>
+      </c>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
@@ -12984,10 +13033,10 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>40000</v>
-      </c>
-    </row>
-    <row r="3" hidden="1" spans="1:4">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
@@ -12999,7 +13048,7 @@
       </c>
       <c r="D3" s="9">
         <f>Orders!F3-Collection!H3</f>
-        <v>0</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="4" hidden="1" spans="1:4">
@@ -13017,7 +13066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:4">
+    <row r="5" spans="1:4">
       <c r="A5" s="7" t="s">
         <v>10</v>
       </c>
@@ -13029,10 +13078,10 @@
       </c>
       <c r="D5" s="9">
         <f>Orders!F5-Collection!H5</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" hidden="1" spans="1:4">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="7" t="s">
         <v>10</v>
       </c>
@@ -13044,7 +13093,7 @@
       </c>
       <c r="D6" s="9">
         <f>Orders!F6-Collection!H6</f>
-        <v>0</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="7" hidden="1" spans="1:4">
@@ -13092,7 +13141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:4">
+    <row r="10" spans="1:4">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -13104,7 +13153,7 @@
       </c>
       <c r="D10" s="9">
         <f>Orders!F10-Collection!H10</f>
-        <v>0</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="11" hidden="1" spans="1:4">
@@ -13798,7 +13847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" hidden="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>78</v>
       </c>
@@ -13810,7 +13859,7 @@
       </c>
       <c r="D58" s="9">
         <f>Orders!F58-Collection!H58</f>
-        <v>0</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -14345,7 +14394,9 @@
         <filter val="4500"/>
         <filter val="5000"/>
         <filter val="6000"/>
-        <filter val="40000"/>
+        <filter val="7500"/>
+        <filter val="15000"/>
+        <filter val="73000"/>
       </filters>
     </filterColumn>
     <extLst/>

--- a/JioMobile/April2021Mobile.xlsx
+++ b/JioMobile/April2021Mobile.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7815" activeTab="1"/>
+    <workbookView windowWidth="19815" windowHeight="7815" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Orders" sheetId="1" r:id="rId1"/>
@@ -44,6 +44,29 @@
           <t xml:space="preserve">
 3000-Digital
 1000-Cash</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE37" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t>Vijay:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Times New Roman"/>
+            <charset val="0"/>
+          </rPr>
+          <t xml:space="preserve">
+1900-Digital
+1100-Cash</t>
         </r>
       </text>
     </comment>
@@ -679,10 +702,10 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="[$-409]d\-mmm;@"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-409]d\-mmm;@"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -701,9 +724,114 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -717,101 +845,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -824,22 +862,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -925,7 +948,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -937,91 +1104,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,73 +1122,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1128,11 +1151,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1152,17 +1190,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1182,16 +1214,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1216,27 +1248,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1248,130 +1271,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1436,7 +1459,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1465,7 +1488,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1474,7 +1497,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1806,11 +1829,11 @@
   <dimension ref="A1:AT114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="8" ySplit="2" topLeftCell="AC9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="AI3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AD25" sqref="AD25"/>
+      <selection pane="bottomRight" activeCell="AM65" sqref="AM65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1956,26 +1979,26 @@
       <c r="A2" s="14"/>
       <c r="B2" s="24">
         <f>SUM(F3:F121)</f>
-        <v>176500</v>
+        <v>185500</v>
       </c>
       <c r="D2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>166500</v>
+        <v>175500</v>
       </c>
       <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="F2" s="25">
         <f>H2+I2</f>
-        <v>176500</v>
+        <v>185500</v>
       </c>
       <c r="G2" s="25">
         <f>H2/1500</f>
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H2" s="15">
         <f>SUM(J2:AN2)</f>
-        <v>166500</v>
+        <v>175500</v>
       </c>
       <c r="I2" s="29">
         <f>SUM(I3:I121)</f>
@@ -2071,7 +2094,7 @@
       </c>
       <c r="AF2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AG2" s="11">
         <f t="shared" si="0"/>
@@ -2099,7 +2122,7 @@
       </c>
       <c r="AM2" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" spans="1:40">
@@ -4118,15 +4141,15 @@
       </c>
       <c r="F37" s="11">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G37" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H37" s="11">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I37" s="30">
         <v>0</v>
@@ -4156,7 +4179,10 @@
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
       <c r="AE37" s="1"/>
-      <c r="AF37" s="1"/>
+      <c r="AF37" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
@@ -4835,15 +4861,15 @@
       </c>
       <c r="F49" s="11">
         <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="G49" s="11">
         <f t="shared" si="5"/>
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H49" s="11">
         <f t="shared" si="6"/>
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="I49" s="30">
         <v>0</v>
@@ -4883,7 +4909,10 @@
       <c r="AJ49" s="1"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
-      <c r="AM49" s="1"/>
+      <c r="AM49" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AN49" s="1"/>
     </row>
     <row r="50" s="12" customFormat="1" spans="1:40">
@@ -5589,15 +5618,15 @@
       </c>
       <c r="F62" s="11">
         <f t="shared" si="4"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="G62" s="11">
         <f t="shared" si="5"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H62" s="11">
         <f t="shared" si="6"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="30">
         <v>0</v>
@@ -5634,7 +5663,10 @@
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
-      <c r="AM62" s="1"/>
+      <c r="AM62" s="1">
+        <f>2*1500</f>
+        <v>3000</v>
+      </c>
       <c r="AN62" s="1"/>
     </row>
     <row r="63" s="12" customFormat="1" spans="1:40">
@@ -7665,12 +7697,12 @@
   <sheetPr/>
   <dimension ref="A1:AM112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="6" ySplit="2" topLeftCell="X9" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="6" ySplit="2" topLeftCell="AD43" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AC25" sqref="AC25"/>
+      <selection pane="bottomRight" activeCell="AL62" sqref="AL62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -7816,14 +7848,14 @@
       <c r="E2" s="14"/>
       <c r="F2" s="15">
         <f>SUM(H3:H121)</f>
-        <v>103500</v>
+        <v>109500</v>
       </c>
       <c r="G2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="17">
         <f>SUM(I2:AM2)</f>
-        <v>103500</v>
+        <v>109500</v>
       </c>
       <c r="I2" s="11">
         <f t="shared" ref="I2:AB2" si="0">SUM(I3:I121)</f>
@@ -7915,7 +7947,7 @@
       </c>
       <c r="AE2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
       <c r="AF2" s="11">
         <f t="shared" si="1"/>
@@ -7943,7 +7975,7 @@
       </c>
       <c r="AL2" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="3" s="12" customFormat="1" spans="1:39">
@@ -9821,7 +9853,7 @@
       </c>
       <c r="H37" s="11">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="20">
@@ -9847,7 +9879,9 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
       <c r="AD37" s="1"/>
-      <c r="AE37" s="1"/>
+      <c r="AE37" s="20">
+        <v>3000</v>
+      </c>
       <c r="AF37" s="1"/>
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
@@ -11156,7 +11190,7 @@
       </c>
       <c r="H62" s="11">
         <f t="shared" si="3"/>
-        <v>3000</v>
+        <v>6000</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
@@ -11189,7 +11223,9 @@
       <c r="AI62" s="1"/>
       <c r="AJ62" s="1"/>
       <c r="AK62" s="1"/>
-      <c r="AL62" s="1"/>
+      <c r="AL62" s="1">
+        <v>3000</v>
+      </c>
       <c r="AM62" s="1"/>
     </row>
     <row r="63" s="12" customFormat="1" spans="1:39">
@@ -13001,11 +13037,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
+  <sheetPr/>
   <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -13041,11 +13077,11 @@
       </c>
       <c r="D2" s="6">
         <f>Orders!F2-Collection!H2</f>
-        <v>73000</v>
+        <v>76000</v>
       </c>
       <c r="E2" s="7">
         <f>SUM(D3:D96)</f>
-        <v>73000</v>
+        <v>76000</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -13063,7 +13099,7 @@
         <v>7500</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:4">
+    <row r="4" spans="1:4">
       <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
@@ -13108,7 +13144,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="7" hidden="1" spans="1:4">
+    <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -13123,7 +13159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" hidden="1" spans="1:4">
+    <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
         <v>10</v>
       </c>
@@ -13138,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:4">
+    <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
         <v>10</v>
       </c>
@@ -13168,7 +13204,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" s="8" t="s">
         <v>24</v>
       </c>
@@ -13183,7 +13219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:4">
+    <row r="12" spans="1:4">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
@@ -13198,7 +13234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" hidden="1" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13" s="8" t="s">
         <v>24</v>
       </c>
@@ -13213,7 +13249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:4">
+    <row r="14" spans="1:4">
       <c r="A14" s="8" t="s">
         <v>24</v>
       </c>
@@ -13228,7 +13264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:4">
+    <row r="15" spans="1:4">
       <c r="A15" s="8" t="s">
         <v>24</v>
       </c>
@@ -13243,7 +13279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:4">
+    <row r="16" spans="1:4">
       <c r="A16" s="8" t="s">
         <v>24</v>
       </c>
@@ -13258,7 +13294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:4">
+    <row r="17" spans="1:4">
       <c r="A17" s="8" t="s">
         <v>24</v>
       </c>
@@ -13271,7 +13307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" hidden="1" spans="1:4">
+    <row r="18" spans="1:4">
       <c r="A18" s="8" t="s">
         <v>24</v>
       </c>
@@ -13299,7 +13335,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="8" t="s">
         <v>37</v>
       </c>
@@ -13329,7 +13365,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:4">
+    <row r="22" spans="1:4">
       <c r="A22" s="8" t="s">
         <v>37</v>
       </c>
@@ -13344,7 +13380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:4">
+    <row r="23" spans="1:4">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
@@ -13359,7 +13395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:4">
+    <row r="24" spans="1:4">
       <c r="A24" s="8" t="s">
         <v>37</v>
       </c>
@@ -13374,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25" s="8" t="s">
         <v>37</v>
       </c>
@@ -13389,7 +13425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" hidden="1" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" s="8" t="s">
         <v>37</v>
       </c>
@@ -13419,7 +13455,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:4">
+    <row r="28" spans="1:4">
       <c r="A28" s="8" t="s">
         <v>37</v>
       </c>
@@ -13434,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" hidden="1" spans="1:4">
+    <row r="29" spans="1:4">
       <c r="A29" s="8" t="s">
         <v>37</v>
       </c>
@@ -13449,7 +13485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" hidden="1" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" s="8" t="s">
         <v>37</v>
       </c>
@@ -13464,7 +13500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" hidden="1" spans="1:4">
+    <row r="31" spans="1:4">
       <c r="A31" s="8" t="s">
         <v>37</v>
       </c>
@@ -13479,7 +13515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" hidden="1" spans="1:4">
+    <row r="32" spans="1:4">
       <c r="A32" s="8" t="s">
         <v>37</v>
       </c>
@@ -13494,7 +13530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:4">
+    <row r="33" spans="1:4">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -13524,7 +13560,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:4">
+    <row r="35" spans="1:4">
       <c r="A35" s="8" t="s">
         <v>52</v>
       </c>
@@ -13554,7 +13590,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:4">
+    <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
         <v>52</v>
       </c>
@@ -13569,7 +13605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:4">
+    <row r="38" spans="1:4">
       <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
@@ -13597,7 +13633,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:4">
+    <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
         <v>52</v>
       </c>
@@ -13657,7 +13693,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" hidden="1" spans="1:4">
+    <row r="44" spans="1:4">
       <c r="A44" s="8" t="s">
         <v>52</v>
       </c>
@@ -13685,7 +13721,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46" s="8" t="s">
         <v>65</v>
       </c>
@@ -13700,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47" s="8" t="s">
         <v>65</v>
       </c>
@@ -13715,7 +13751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:4">
+    <row r="48" spans="1:4">
       <c r="A48" s="8" t="s">
         <v>65</v>
       </c>
@@ -13728,7 +13764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49" s="8" t="s">
         <v>65</v>
       </c>
@@ -13740,10 +13776,10 @@
       </c>
       <c r="D49" s="10">
         <f>Orders!F49-Collection!H49</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" hidden="1" spans="1:4">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="8" t="s">
         <v>65</v>
       </c>
@@ -13758,7 +13794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" hidden="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
@@ -13773,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" hidden="1" spans="1:4">
+    <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
         <v>65</v>
       </c>
@@ -13786,7 +13822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" hidden="1" spans="1:4">
+    <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
         <v>65</v>
       </c>
@@ -13801,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
         <v>65</v>
       </c>
@@ -13816,7 +13852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" hidden="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
         <v>65</v>
       </c>
@@ -13829,7 +13865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" hidden="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
         <v>65</v>
       </c>
@@ -13844,7 +13880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" hidden="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
         <v>65</v>
       </c>
@@ -13889,7 +13925,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="60" hidden="1" spans="1:4">
+    <row r="60" spans="1:4">
       <c r="A60" s="8" t="s">
         <v>78</v>
       </c>
@@ -13904,7 +13940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" hidden="1" spans="1:4">
+    <row r="61" spans="1:4">
       <c r="A61" s="8" t="s">
         <v>78</v>
       </c>
@@ -13917,7 +13953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" hidden="1" spans="1:4">
+    <row r="62" spans="1:4">
       <c r="A62" s="8" t="s">
         <v>83</v>
       </c>
@@ -13932,7 +13968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
+    <row r="63" spans="1:4">
       <c r="A63" s="8" t="s">
         <v>83</v>
       </c>
@@ -13947,7 +13983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" hidden="1" spans="1:4">
+    <row r="64" spans="1:4">
       <c r="A64" s="8" t="s">
         <v>83</v>
       </c>
@@ -13962,7 +13998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" hidden="1" spans="1:4">
+    <row r="65" spans="1:4">
       <c r="A65" s="8" t="s">
         <v>88</v>
       </c>
@@ -13977,7 +14013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66" s="8" t="s">
         <v>88</v>
       </c>
@@ -13992,7 +14028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" hidden="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67" s="8" t="s">
         <v>91</v>
       </c>
@@ -14007,7 +14043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
+    <row r="68" spans="1:4">
       <c r="A68" s="8" t="s">
         <v>93</v>
       </c>
@@ -14022,7 +14058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" hidden="1" spans="1:4">
+    <row r="69" spans="1:4">
       <c r="A69" s="8" t="s">
         <v>93</v>
       </c>
@@ -14035,7 +14071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" hidden="1" spans="1:4">
+    <row r="70" spans="1:4">
       <c r="A70" s="8" t="s">
         <v>93</v>
       </c>
@@ -14048,7 +14084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
+    <row r="71" spans="1:4">
       <c r="A71" s="8" t="s">
         <v>93</v>
       </c>
@@ -14063,7 +14099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" hidden="1" spans="1:4">
+    <row r="72" spans="1:4">
       <c r="A72" s="8" t="s">
         <v>93</v>
       </c>
@@ -14078,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" hidden="1" spans="1:4">
+    <row r="73" spans="1:4">
       <c r="A73" s="8" t="s">
         <v>93</v>
       </c>
@@ -14093,7 +14129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" hidden="1" spans="1:4">
+    <row r="74" spans="1:4">
       <c r="A74" s="8" t="s">
         <v>93</v>
       </c>
@@ -14108,7 +14144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" hidden="1" spans="1:4">
+    <row r="75" spans="1:4">
       <c r="A75" s="8" t="s">
         <v>93</v>
       </c>
@@ -14123,7 +14159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" hidden="1" spans="1:4">
+    <row r="76" spans="1:4">
       <c r="A76" s="8" t="s">
         <v>93</v>
       </c>
@@ -14138,7 +14174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" hidden="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77" s="8" t="s">
         <v>103</v>
       </c>
@@ -14153,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" hidden="1" spans="1:4">
+    <row r="78" spans="1:4">
       <c r="A78" s="8" t="s">
         <v>103</v>
       </c>
@@ -14168,7 +14204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" hidden="1" spans="1:4">
+    <row r="79" spans="1:4">
       <c r="A79" s="8" t="s">
         <v>103</v>
       </c>
@@ -14183,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" hidden="1" spans="1:4">
+    <row r="80" spans="1:4">
       <c r="A80" s="8"/>
       <c r="B80" s="8"/>
       <c r="C80" s="9" t="s">
@@ -14194,7 +14230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" hidden="1" spans="1:4">
+    <row r="81" spans="1:4">
       <c r="A81" s="8" t="s">
         <v>108</v>
       </c>
@@ -14209,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" hidden="1" spans="1:4">
+    <row r="82" spans="1:4">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="9" t="s">
@@ -14220,7 +14256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" hidden="1" spans="1:4">
+    <row r="83" spans="1:4">
       <c r="A83" s="8" t="s">
         <v>111</v>
       </c>
@@ -14235,7 +14271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" hidden="1" spans="1:4">
+    <row r="84" spans="1:4">
       <c r="A84" s="8"/>
       <c r="B84" s="8"/>
       <c r="C84" s="9" t="s">
@@ -14246,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" hidden="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85" s="8" t="s">
         <v>114</v>
       </c>
@@ -14261,7 +14297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" hidden="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86" s="8" t="s">
         <v>114</v>
       </c>
@@ -14276,7 +14312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" hidden="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87" s="8" t="s">
         <v>114</v>
       </c>
@@ -14291,7 +14327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" hidden="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88" s="8" t="s">
         <v>118</v>
       </c>
@@ -14304,7 +14340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" hidden="1" spans="1:4">
+    <row r="89" spans="1:4">
       <c r="A89" s="8"/>
       <c r="B89" s="8"/>
       <c r="C89" s="9" t="s">
@@ -14315,7 +14351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" hidden="1" spans="1:4">
+    <row r="90" spans="1:4">
       <c r="A90" s="8"/>
       <c r="B90" s="8"/>
       <c r="C90" s="9" t="s">
@@ -14326,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" hidden="1" spans="1:4">
+    <row r="91" spans="1:4">
       <c r="A91" s="8"/>
       <c r="B91" s="8"/>
       <c r="C91" s="9" t="s">
@@ -14337,7 +14373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" hidden="1" spans="1:4">
+    <row r="92" spans="1:4">
       <c r="A92" s="8"/>
       <c r="B92" s="8">
         <v>9015378357</v>
@@ -14350,7 +14386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" hidden="1" spans="1:4">
+    <row r="93" spans="1:4">
       <c r="A93" s="8"/>
       <c r="B93" s="8"/>
       <c r="C93" s="9" t="s">
@@ -14361,7 +14397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" hidden="1" spans="1:4">
+    <row r="94" spans="1:4">
       <c r="A94" s="8"/>
       <c r="B94" s="8">
         <v>7254967519</v>
@@ -14374,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" hidden="1" spans="1:4">
+    <row r="95" spans="1:4">
       <c r="A95" s="8"/>
       <c r="B95" s="8"/>
       <c r="C95" s="9" t="s">
@@ -14385,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" hidden="1" spans="1:4">
+    <row r="96" spans="1:4">
       <c r="A96" s="8"/>
       <c r="B96" s="8"/>
       <c r="C96" s="9" t="s">
@@ -14398,19 +14434,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D96">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="1500"/>
-        <filter val="3000"/>
-        <filter val="3500"/>
-        <filter val="4500"/>
-        <filter val="5000"/>
-        <filter val="6000"/>
-        <filter val="7500"/>
-        <filter val="15000"/>
-        <filter val="73000"/>
-      </filters>
-    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
